--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -84,6 +84,593 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Varying time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> series</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11147030778456064"/>
+          <c:y val="0.18468511611487159"/>
+          <c:w val="0.72691382327209098"/>
+          <c:h val="0.68447145861153325"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Matlab</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$F$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>CUDA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$F$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="43802624"/>
+        <c:axId val="43804160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="43802624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Time series size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43804160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43804160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43802624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Varying number of voxels</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$E$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$E$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81920</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8089999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="112646016"/>
+        <c:axId val="113310720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="112646016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> of voxels</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="113310720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113310720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112646016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,7 +963,7 @@
   <dimension ref="D5:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +1044,9 @@
       <c r="J9">
         <v>7.1319999999999997</v>
       </c>
+      <c r="K9">
+        <v>13.956</v>
+      </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
@@ -516,6 +1106,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
